--- a/CashFlow/NUAN_cashflow.xlsx
+++ b/CashFlow/NUAN_cashflow.xlsx
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4809000.0</v>
+        <v>298000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-8173000.0</v>
+        <v>303000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>8700000.0</v>
+        <v>252568000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>28277000.0</v>
+        <v>196496000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>45386000.0</v>
+        <v>132732000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>27415000.0</v>
